--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,6 +598,342 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>10</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>16</v>
       </c>
     </row>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -790,150 +790,6 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.5t1.5</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
         <v>16</v>
       </c>
     </row>

--- a/finish.xlsx
+++ b/finish.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,390 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.5t1.5</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
